--- a/elDnevnik/blanks/uspevaemost.xlsx
+++ b/elDnevnik/blanks/uspevaemost.xlsx
@@ -19,33 +19,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Ф.И.О. учащегося</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Средний балл</t>
   </si>
   <si>
-    <t>Сводная ведомость успеваемости учащихся</t>
+    <t>Ведомость отметок ФИО</t>
   </si>
   <si>
-    <t>1 А класа</t>
+    <t>за</t>
   </si>
   <si>
-    <t xml:space="preserve">За </t>
+    <t>Предмет</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -71,7 +77,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -354,50 +360,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="31" width="3" customWidth="1"/>
+    <col min="32" max="32" width="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <v>17</v>
+      </c>
+      <c r="S5">
+        <v>18</v>
+      </c>
+      <c r="T5">
+        <v>19</v>
+      </c>
+      <c r="U5">
+        <v>20</v>
+      </c>
+      <c r="V5">
+        <v>21</v>
+      </c>
+      <c r="W5">
+        <v>22</v>
+      </c>
+      <c r="X5">
+        <v>23</v>
+      </c>
+      <c r="Y5">
+        <v>24</v>
+      </c>
+      <c r="Z5">
+        <v>25</v>
+      </c>
+      <c r="AA5">
+        <v>26</v>
+      </c>
+      <c r="AB5">
+        <v>27</v>
+      </c>
+      <c r="AC5">
+        <v>28</v>
+      </c>
+      <c r="AD5">
+        <v>29</v>
+      </c>
+      <c r="AE5">
+        <v>30</v>
+      </c>
+      <c r="AF5">
+        <v>31</v>
+      </c>
+      <c r="AG5" t="s">
         <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="A3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>